--- a/Challenges Master List.xlsx
+++ b/Challenges Master List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benha\Documents\GitHub\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E7A70B-EC62-46D5-BFC4-CCCF9E6E34B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E059FF90-12BE-4856-8363-15AD9B0FBAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF20F5DF-5C35-4825-BE39-56B805E76CD3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Kill Me</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Lucky Guess</t>
   </si>
   <si>
-    <t>Say the ghost\'s name audibly with local chat during a hunt</t>
-  </si>
-  <si>
     <t>Once the ghost\'s room is found, put every single item in there</t>
   </si>
   <si>
@@ -144,18 +141,12 @@
     <t>You must immediately leave the room when you see freezing breath</t>
   </si>
   <si>
-    <t>Locate the ghosts room with the Parabolic Microphone ( small maps only )</t>
-  </si>
-  <si>
     <t>Use starter equipment only, unless specified by another rule</t>
   </si>
   <si>
     <t>No using any technology outside of the starter equipment, unless specified by another rule</t>
   </si>
   <si>
-    <t>Purchase and set up every single camera and head mounted camera before doing anything else. Pick one person to day in the van and monitor</t>
-  </si>
-  <si>
     <t>Once you enter, no leaving the house until you identify the ghost ( tip: leave someone in the van for orbs )</t>
   </si>
   <si>
@@ -201,13 +192,58 @@
     <t>Use all available smudge sticks at the start of the match to set the mood</t>
   </si>
   <si>
-    <t>Designate one player to carry sanity pills, a thermometer, and a flashlight. They cannot use the pills, only hand them out</t>
-  </si>
-  <si>
     <t>Purchase and set up every single camera and tripod at the start of the game. No moving tripods once they are placed</t>
   </si>
   <si>
     <t>Players can only use the regular flashlights</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>Designate one player to be the Doktor. They must always carry sanity pills, a thermometer, and a flashlight. They cannot use the pills, only hand them out to other players</t>
+  </si>
+  <si>
+    <t>Best Friends</t>
+  </si>
+  <si>
+    <t>Find a tool in the garage at the start of the game, and carry it around with you. If the car alarm goes off, you can put it back in the garage ( requires a garage )</t>
+  </si>
+  <si>
+    <t>Bone Hurting Juice</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Tunnel Vision</t>
+  </si>
+  <si>
+    <t>Tidy</t>
+  </si>
+  <si>
+    <t>Each player must say the ghost\'s name audibly with local chat during a hunt</t>
+  </si>
+  <si>
+    <t>Locate the ghosts room ( or the general area ) with the Parabolic Microphone - small maps only</t>
+  </si>
+  <si>
+    <t>Purchase and set up every single camera and head mounted camera before doing anything else. Pick one person to stay in the van and monitor</t>
+  </si>
+  <si>
+    <t>Grab a stuffed animal at the start of the game, and carry it around with you. If you hear a child laugh, you can put it back ( requires a kid\'s room )</t>
+  </si>
+  <si>
+    <t>Once you find the chicken bone, you are not allowed to enter that room or pick it up ( If the bone is in a hallway, this rule is voided )</t>
+  </si>
+  <si>
+    <t>Swap out all of your equipment every time you enter the van</t>
+  </si>
+  <si>
+    <t>Once you identify the ghost\'s room, you are only allowed to have the light in that room on</t>
+  </si>
+  <si>
+    <t>Keep the house clean! When the ghost moves something, put it back where it came from</t>
   </si>
 </sst>
 </file>
@@ -559,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20DAC56-7703-4D3A-89E8-0B35C0527A4F}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +748,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,44 +780,44 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -789,18 +825,66 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
